--- a/backend/storage/app/xlsx/seed_cidades_pe.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_pe.xlsx
@@ -23,7 +23,7 @@
     <t>ABREU-LIMENSE</t>
   </si>
   <si>
-    <t>7bdeefb4-d94b-440c-94a0-3dfcc631d625</t>
+    <t>3ed17a4e-a077-4543-a82e-f8846667721b</t>
   </si>
   <si>
     <t>AFOGADOS DA INGAZEIRA</t>

--- a/backend/storage/app/xlsx/seed_cidades_pe.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_pe.xlsx
@@ -23,7 +23,7 @@
     <t>ABREU-LIMENSE</t>
   </si>
   <si>
-    <t>3ed17a4e-a077-4543-a82e-f8846667721b</t>
+    <t>d3e26c8a-fbf7-41a5-9b38-64011f9a2101</t>
   </si>
   <si>
     <t>AFOGADOS DA INGAZEIRA</t>

--- a/backend/storage/app/xlsx/seed_cidades_pe.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_pe.xlsx
@@ -23,7 +23,7 @@
     <t>ABREU-LIMENSE</t>
   </si>
   <si>
-    <t>d3e26c8a-fbf7-41a5-9b38-64011f9a2101</t>
+    <t>c5b5838e-6069-42e6-8e64-b7fc9708705e</t>
   </si>
   <si>
     <t>AFOGADOS DA INGAZEIRA</t>

--- a/backend/storage/app/xlsx/seed_cidades_pe.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_pe.xlsx
@@ -23,7 +23,7 @@
     <t>ABREU-LIMENSE</t>
   </si>
   <si>
-    <t>c5b5838e-6069-42e6-8e64-b7fc9708705e</t>
+    <t>3e234cf9-4b4d-459d-a02a-4e54b4a08417</t>
   </si>
   <si>
     <t>AFOGADOS DA INGAZEIRA</t>

--- a/backend/storage/app/xlsx/seed_cidades_pe.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_pe.xlsx
@@ -23,7 +23,7 @@
     <t>ABREU-LIMENSE</t>
   </si>
   <si>
-    <t>3e234cf9-4b4d-459d-a02a-4e54b4a08417</t>
+    <t>02d732a7-7995-428f-be3f-54d00db40fe7</t>
   </si>
   <si>
     <t>AFOGADOS DA INGAZEIRA</t>

--- a/backend/storage/app/xlsx/seed_cidades_pe.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_pe.xlsx
@@ -23,7 +23,7 @@
     <t>ABREU-LIMENSE</t>
   </si>
   <si>
-    <t>02d732a7-7995-428f-be3f-54d00db40fe7</t>
+    <t>62532caf-7cc5-4b23-946c-6652bd88f8d5</t>
   </si>
   <si>
     <t>AFOGADOS DA INGAZEIRA</t>
